--- a/Import/Configurations/group_menu_template.xlsx
+++ b/Import/Configurations/group_menu_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA4BC9-4E60-48A7-AC58-ECFD718C6C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7528B6BA-2C05-4636-822E-5CE12EE9457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="90">
   <si>
     <t>Menu</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Projects</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G74" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G75" headerRowCount="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
@@ -777,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2174,10 +2177,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>88</v>
@@ -2197,7 +2200,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
         <v>75</v>
@@ -2220,7 +2223,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
         <v>75</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
         <v>75</v>
@@ -2266,7 +2269,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
         <v>75</v>
@@ -2289,7 +2292,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
         <v>75</v>
@@ -2312,7 +2315,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
         <v>75</v>
@@ -2335,7 +2338,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
@@ -2358,7 +2361,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
@@ -2381,7 +2384,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -2450,7 +2453,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -2473,24 +2476,47 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" s="4" t="s">
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" t="s">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Import/Configurations/group_menu_template.xlsx
+++ b/Import/Configurations/group_menu_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7528B6BA-2C05-4636-822E-5CE12EE9457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9067CB09-5D29-48E1-9090-FCD3F6831BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="93">
   <si>
     <t>Menu</t>
   </si>
@@ -377,6 +377,15 @@
   </si>
   <si>
     <t>Projects</t>
+  </si>
+  <si>
+    <t>Disease History</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Maintenance Records</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G75" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G78" headerRowCount="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
@@ -780,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,10 +1335,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
@@ -1349,7 +1358,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -1372,7 +1381,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -1395,7 +1404,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -1418,7 +1427,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1441,7 +1450,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1464,7 +1473,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -1487,7 +1496,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -1510,10 +1519,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>88</v>
@@ -1533,7 +1542,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -1556,7 +1565,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
@@ -1579,7 +1588,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
@@ -1602,7 +1611,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -1625,7 +1634,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1648,7 +1657,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
@@ -1671,7 +1680,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -1694,7 +1703,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -1717,10 +1726,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>88</v>
@@ -1740,10 +1749,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
         <v>88</v>
@@ -1763,10 +1772,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>88</v>
@@ -1786,7 +1795,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -1808,8 +1817,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>58</v>
+      <c r="A45" t="s">
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>54</v>
@@ -1831,11 +1840,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>59</v>
+      <c r="A46" t="s">
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
         <v>88</v>
@@ -1854,11 +1863,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>61</v>
+      <c r="A47" t="s">
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>88</v>
@@ -1878,10 +1887,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>88</v>
@@ -1901,7 +1910,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>60</v>
@@ -1924,7 +1933,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
         <v>60</v>
@@ -1947,7 +1956,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
         <v>60</v>
@@ -1970,7 +1979,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
@@ -1993,7 +2002,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
@@ -2016,7 +2025,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2039,7 +2048,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -2062,7 +2071,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -2085,7 +2094,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2108,7 +2117,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -2131,7 +2140,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -2154,7 +2163,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -2177,7 +2186,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -2200,10 +2209,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>88</v>
@@ -2222,11 +2231,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>76</v>
+      <c r="A63" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
         <v>88</v>
@@ -2246,10 +2255,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
         <v>88</v>
@@ -2268,8 +2277,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>78</v>
+      <c r="A65" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B65" t="s">
         <v>75</v>
@@ -2291,8 +2300,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>79</v>
+      <c r="A66" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B66" t="s">
         <v>75</v>
@@ -2314,8 +2323,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>80</v>
+      <c r="A67" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B67" t="s">
         <v>75</v>
@@ -2337,8 +2346,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>81</v>
+      <c r="A68" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
@@ -2360,8 +2369,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>82</v>
+      <c r="A69" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
@@ -2383,8 +2392,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>83</v>
+      <c r="A70" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -2406,8 +2415,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>84</v>
+      <c r="A71" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -2429,8 +2438,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>85</v>
+      <c r="A72" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -2452,8 +2461,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>86</v>
+      <c r="A73" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -2475,48 +2484,117 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" t="s">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="C77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>67</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>60</v>
       </c>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" t="s">
-        <v>88</v>
-      </c>
-      <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Import/Configurations/group_menu_template.xlsx
+++ b/Import/Configurations/group_menu_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9067CB09-5D29-48E1-9090-FCD3F6831BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F71ACE2-C2E8-4496-9951-1EED42DA186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="95">
   <si>
     <t>Menu</t>
   </si>
@@ -386,13 +386,19 @@
   </si>
   <si>
     <t>Maintenance Records</t>
+  </si>
+  <si>
+    <t>Vaccination</t>
+  </si>
+  <si>
+    <t>Telemedicine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -478,7 +484,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G78" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G80" headerRowCount="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
@@ -789,13 +795,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:I39"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -804,7 +810,7 @@
     <col min="6" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -850,7 +856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -873,7 +879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -896,9 +902,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -919,9 +925,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -942,55 +948,55 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1011,9 +1017,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1034,101 +1040,101 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -1149,9 +1155,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1172,9 +1178,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1195,9 +1201,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1218,9 +1224,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1241,9 +1247,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1264,55 +1270,55 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1333,9 +1339,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -1356,55 +1362,55 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -1425,9 +1431,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1448,9 +1454,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1471,9 +1477,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -1494,9 +1500,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -1517,9 +1523,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -1540,55 +1546,55 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
         <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
@@ -1609,9 +1615,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -1632,9 +1638,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1655,9 +1661,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
@@ -1678,9 +1684,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -1701,9 +1707,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -1724,9 +1730,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
@@ -1747,9 +1753,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -1770,9 +1776,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1793,55 +1799,55 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>53</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
@@ -1862,9 +1868,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
@@ -1885,9 +1891,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>58</v>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
@@ -1908,55 +1914,55 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="B51" t="s">
         <v>60</v>
@@ -1977,9 +1983,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
@@ -2000,9 +2006,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
@@ -2023,9 +2029,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2046,9 +2052,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -2069,9 +2075,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -2092,9 +2098,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2115,9 +2121,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -2138,9 +2144,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -2161,9 +2167,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -2184,9 +2190,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -2207,9 +2213,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -2230,9 +2236,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -2253,9 +2259,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -2276,55 +2282,55 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="B67" t="s">
         <v>75</v>
@@ -2345,9 +2351,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
@@ -2368,9 +2374,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
@@ -2391,9 +2397,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -2414,9 +2420,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -2437,9 +2443,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -2460,9 +2466,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -2483,9 +2489,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -2506,9 +2512,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -2529,9 +2535,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
@@ -2552,49 +2558,95 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:7">
+      <c r="A77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="C79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
         <v>67</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>60</v>
       </c>
-      <c r="C78" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Import/Configurations/group_menu_template.xlsx
+++ b/Import/Configurations/group_menu_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F71ACE2-C2E8-4496-9951-1EED42DA186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F53BA5D-98BB-4276-9BCF-313C1C1D3977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="96">
   <si>
     <t>Menu</t>
   </si>
@@ -392,13 +392,16 @@
   </si>
   <si>
     <t>Telemedicine</t>
+  </si>
+  <si>
+    <t>Queue Kiosk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -484,7 +487,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G80" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G81" headerRowCount="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
@@ -795,13 +798,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -810,7 +813,7 @@
     <col min="6" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -856,7 +859,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -879,7 +882,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -902,7 +905,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -925,7 +928,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -948,7 +951,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -971,7 +974,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -994,7 +997,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1086,32 +1089,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1132,32 +1135,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1178,9 +1181,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1201,9 +1204,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1224,9 +1227,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1247,9 +1250,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1270,9 +1273,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1293,9 +1296,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1316,32 +1319,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -1362,9 +1365,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1385,9 +1388,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -1408,32 +1411,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -1454,9 +1457,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1477,9 +1480,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -1500,9 +1503,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -1523,9 +1526,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -1546,9 +1549,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1569,9 +1572,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1592,32 +1595,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -1638,9 +1641,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1661,9 +1664,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
@@ -1684,9 +1687,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -1707,9 +1710,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -1730,9 +1733,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
@@ -1753,9 +1756,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -1776,9 +1779,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1799,9 +1802,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1822,9 +1825,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -1845,32 +1848,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
@@ -1891,9 +1894,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
@@ -1914,9 +1917,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
@@ -1937,9 +1940,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="2" t="s">
-        <v>58</v>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>57</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -1960,32 +1963,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
@@ -2006,9 +2009,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
@@ -2029,9 +2032,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2052,9 +2055,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -2075,9 +2078,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -2098,9 +2101,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2121,9 +2124,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -2144,9 +2147,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -2167,9 +2170,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -2190,9 +2193,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -2213,9 +2216,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -2236,9 +2239,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -2259,9 +2262,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -2282,9 +2285,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
@@ -2305,9 +2308,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -2328,32 +2331,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
@@ -2374,9 +2377,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="2" t="s">
-        <v>77</v>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
@@ -2397,9 +2400,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="3" t="s">
-        <v>78</v>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -2420,9 +2423,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="2" t="s">
-        <v>79</v>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -2443,9 +2446,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="3" t="s">
-        <v>80</v>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -2466,9 +2469,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="2" t="s">
-        <v>81</v>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -2489,9 +2492,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="3" t="s">
-        <v>82</v>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -2512,9 +2515,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="2" t="s">
-        <v>83</v>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -2535,9 +2538,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="3" t="s">
-        <v>84</v>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
@@ -2558,9 +2561,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="2" t="s">
-        <v>85</v>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -2581,9 +2584,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="3" t="s">
-        <v>86</v>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B78" t="s">
         <v>75</v>
@@ -2604,49 +2607,72 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
+      <c r="C80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>67</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>60</v>
       </c>
-      <c r="C80" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Import/Configurations/group_menu_template.xlsx
+++ b/Import/Configurations/group_menu_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F53BA5D-98BB-4276-9BCF-313C1C1D3977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FA26BF-6A65-4731-A544-BE7A5E481D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="97">
   <si>
     <t>Menu</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>Queue Kiosk</t>
+  </si>
+  <si>
+    <t>Maternities</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G81" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G82" headerRowCount="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
@@ -502,7 +505,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -798,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +979,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -999,10 +1002,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
@@ -1022,7 +1025,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1045,7 +1048,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1068,7 +1071,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1091,7 +1094,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1114,10 +1117,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>88</v>
@@ -1137,7 +1140,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1160,10 +1163,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
@@ -1183,7 +1186,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1206,7 +1209,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1298,7 +1301,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1321,7 +1324,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1344,10 +1347,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1390,7 +1393,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -1413,7 +1416,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
@@ -1436,10 +1439,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>88</v>
@@ -1459,7 +1462,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -1505,7 +1508,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -1528,7 +1531,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -1551,7 +1554,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1574,7 +1577,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -1620,10 +1623,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>88</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
@@ -1666,7 +1669,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
@@ -1689,7 +1692,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -1712,7 +1715,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -1735,7 +1738,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
@@ -1758,7 +1761,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -1781,7 +1784,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1804,7 +1807,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1827,7 +1830,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -1850,7 +1853,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -1873,10 +1876,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>88</v>
@@ -1896,7 +1899,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>54</v>
@@ -1919,7 +1922,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
@@ -1942,7 +1945,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -1964,8 +1967,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>58</v>
+      <c r="A51" t="s">
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
@@ -1988,10 +1991,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
         <v>88</v>
@@ -2011,7 +2014,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
@@ -2034,7 +2037,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2057,7 +2060,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2126,7 +2129,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -2149,7 +2152,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -2172,7 +2175,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -2195,7 +2198,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -2241,7 +2244,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -2287,7 +2290,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
@@ -2310,7 +2313,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -2333,7 +2336,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
@@ -2356,30 +2359,30 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
@@ -2401,8 +2404,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>77</v>
+      <c r="A70" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -2424,8 +2427,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>78</v>
+      <c r="A71" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -2447,8 +2450,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>79</v>
+      <c r="A72" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -2470,8 +2473,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>80</v>
+      <c r="A73" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -2493,8 +2496,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>81</v>
+      <c r="A74" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -2516,8 +2519,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>82</v>
+      <c r="A75" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -2539,8 +2542,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>83</v>
+      <c r="A76" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
@@ -2562,8 +2565,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>84</v>
+      <c r="A77" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -2585,8 +2588,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>85</v>
+      <c r="A78" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>75</v>
@@ -2608,8 +2611,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>86</v>
+      <c r="A79" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B79" t="s">
         <v>75</v>
@@ -2631,48 +2634,71 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="C81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>67</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>60</v>
       </c>
-      <c r="C81" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" t="s">
-        <v>88</v>
-      </c>
-      <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Import/Configurations/group_menu_template.xlsx
+++ b/Import/Configurations/group_menu_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FA26BF-6A65-4731-A544-BE7A5E481D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB98184B-4C2F-4154-9F1B-B3264AFDBD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="98">
   <si>
     <t>Menu</t>
   </si>
@@ -398,13 +398,16 @@
   </si>
   <si>
     <t>Maternities</t>
+  </si>
+  <si>
+    <t>Wellness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -490,7 +493,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G82" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G83" headerRowCount="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
@@ -801,13 +804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -816,7 +819,7 @@
     <col min="6" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -862,7 +865,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -885,7 +888,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -908,7 +911,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -931,7 +934,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -954,7 +957,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -977,7 +980,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -1000,9 +1003,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1023,32 +1026,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1069,9 +1072,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1092,9 +1095,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1115,9 +1118,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1138,32 +1141,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1184,32 +1187,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1230,9 +1233,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1253,9 +1256,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1276,9 +1279,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1299,9 +1302,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1322,9 +1325,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1345,9 +1348,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1368,32 +1371,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -1414,9 +1417,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
@@ -1437,9 +1440,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -1460,32 +1463,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -1506,9 +1509,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -1529,9 +1532,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -1552,9 +1555,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1575,9 +1578,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1598,9 +1601,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -1621,9 +1624,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -1644,32 +1647,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
         <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
@@ -1690,9 +1693,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -1713,9 +1716,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -1736,9 +1739,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
@@ -1759,9 +1762,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -1782,9 +1785,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1805,9 +1808,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1828,9 +1831,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -1851,9 +1854,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -1874,9 +1877,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
         <v>44</v>
@@ -1897,32 +1900,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
         <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
@@ -1943,9 +1946,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -1966,9 +1969,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
@@ -1989,9 +1992,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>58</v>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
@@ -2012,32 +2015,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" t="s">
-        <v>88</v>
-      </c>
-      <c r="G53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2058,9 +2061,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -2081,9 +2084,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -2104,9 +2107,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2127,9 +2130,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -2150,9 +2153,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -2173,9 +2176,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -2196,9 +2199,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -2219,9 +2222,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -2242,9 +2245,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
         <v>60</v>
@@ -2265,9 +2268,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -2288,9 +2291,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
@@ -2311,9 +2314,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -2334,9 +2337,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
@@ -2357,9 +2360,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>60</v>
@@ -2380,32 +2383,32 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E69" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -2426,9 +2429,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>77</v>
+    <row r="71" spans="1:7">
+      <c r="A71" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -2449,9 +2452,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>78</v>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -2472,9 +2475,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>79</v>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -2495,9 +2498,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>80</v>
+    <row r="74" spans="1:7">
+      <c r="A74" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -2518,9 +2521,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>81</v>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -2541,9 +2544,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>82</v>
+    <row r="76" spans="1:7">
+      <c r="A76" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
@@ -2564,9 +2567,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>83</v>
+    <row r="77" spans="1:7">
+      <c r="A77" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -2587,9 +2590,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>84</v>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B78" t="s">
         <v>75</v>
@@ -2610,9 +2613,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>85</v>
+    <row r="79" spans="1:7">
+      <c r="A79" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B79" t="s">
         <v>75</v>
@@ -2633,9 +2636,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>86</v>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B80" t="s">
         <v>75</v>
@@ -2656,49 +2659,72 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:7">
+      <c r="A81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="C82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
         <v>67</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>60</v>
       </c>
-      <c r="C82" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" t="s">
-        <v>88</v>
-      </c>
-      <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Import/Configurations/group_menu_template.xlsx
+++ b/Import/Configurations/group_menu_template.xlsx
@@ -1,102 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Configurations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB98184B-4C2F-4154-9F1B-B3264AFDBD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Anonymous</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t>Mandatory</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t>Mandatory</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t>Select one: Yes/No</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t>Select one: Yes/No</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t>Select one: Yes/No</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t>Select one: Yes/No</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t>Select one: Yes/No</t>
         </r>
@@ -107,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="100">
   <si>
     <t>Menu</t>
   </si>
@@ -136,15 +150,30 @@
     <t>Clinic Service</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Medical Checkups</t>
   </si>
   <si>
     <t>Procedure Rooms</t>
   </si>
   <si>
+    <t>Vaccination</t>
+  </si>
+  <si>
+    <t>Telemedicine</t>
+  </si>
+  <si>
     <t>Accidents</t>
   </si>
   <si>
+    <t>Maternities</t>
+  </si>
+  <si>
+    <t>Wellness</t>
+  </si>
+  <si>
     <t>Reporting And Analytics</t>
   </si>
   <si>
@@ -163,6 +192,9 @@
     <t>Kiosk Configurations</t>
   </si>
   <si>
+    <t>Queue Kiosk</t>
+  </si>
+  <si>
     <t>BPJS Classifications</t>
   </si>
   <si>
@@ -211,6 +243,9 @@
     <t>Insurance Policies</t>
   </si>
   <si>
+    <t>Disease History</t>
+  </si>
+  <si>
     <t>Prescriptions</t>
   </si>
   <si>
@@ -268,6 +303,12 @@
     <t>Reporting Inventories</t>
   </si>
   <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Maintenance Records</t>
+  </si>
+  <si>
     <t>Employees</t>
   </si>
   <si>
@@ -310,125 +351,264 @@
     <t>Disease Categories</t>
   </si>
   <si>
+    <t>Health Centers</t>
+  </si>
+  <si>
+    <t>Building And Locations</t>
+  </si>
+  <si>
+    <t>Nursing Diagnoses</t>
+  </si>
+  <si>
+    <t>Lab Tests</t>
+  </si>
+  <si>
+    <t>Sample Types</t>
+  </si>
+  <si>
+    <t>UOM Labs</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Menus</t>
+  </si>
+  <si>
+    <t>Email Templates</t>
+  </si>
+  <si>
+    <t>Email Settings</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Provinces</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Districts</t>
+  </si>
+  <si>
+    <t>Sub Districts</t>
+  </si>
+  <si>
+    <t>Religions</t>
+  </si>
+  <si>
+    <t>Occupationals</t>
+  </si>
+  <si>
     <t>Chronic Diagnoses</t>
   </si>
   <si>
-    <t>Health Centers</t>
-  </si>
-  <si>
-    <t>Building And Locations</t>
-  </si>
-  <si>
-    <t>Nursing Diagnoses</t>
-  </si>
-  <si>
-    <t>Lab Tests</t>
-  </si>
-  <si>
-    <t>Sample Types</t>
-  </si>
-  <si>
-    <t>UOM Labs</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>Groups</t>
-  </si>
-  <si>
-    <t>Menus</t>
-  </si>
-  <si>
-    <t>Email Templates</t>
-  </si>
-  <si>
-    <t>Email Settings</t>
-  </si>
-  <si>
-    <t>Companies</t>
-  </si>
-  <si>
-    <t>Countries</t>
-  </si>
-  <si>
-    <t>Provinces</t>
-  </si>
-  <si>
-    <t>Cities</t>
-  </si>
-  <si>
-    <t>Districts</t>
-  </si>
-  <si>
-    <t>Sub Districts</t>
-  </si>
-  <si>
-    <t>Religions</t>
-  </si>
-  <si>
-    <t>Occupationals</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>Disease History</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Maintenance Records</t>
-  </si>
-  <si>
-    <t>Vaccination</t>
-  </si>
-  <si>
-    <t>Telemedicine</t>
-  </si>
-  <si>
-    <t>Queue Kiosk</t>
-  </si>
-  <si>
-    <t>Maternities</t>
-  </si>
-  <si>
-    <t>Wellness</t>
+    <t>Education Program</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,12 +617,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor theme="0" tint="-0.149998474074526"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -465,9 +831,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -476,32 +1084,76 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G83" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table" displayName="Table" ref="A1:G85" headerRowCount="0">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Is Create"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Is Read"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Is Update"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Is Delete"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Is Import"/>
+    <tableColumn id="1" name="Menu"/>
+    <tableColumn id="2" name="Parent Menu"/>
+    <tableColumn id="3" name="Is Create"/>
+    <tableColumn id="4" name="Is Read"/>
+    <tableColumn id="5" name="Is Update"/>
+    <tableColumn id="6" name="Is Delete"/>
+    <tableColumn id="7" name="Is Import"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,7 +1202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -583,26 +1235,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -635,23 +1270,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,30 +1411,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7809523809524" customWidth="1"/>
+    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
+    <col min="3" max="4" width="9.1047619047619" customWidth="1"/>
+    <col min="5" max="5" width="9.21904761904762" customWidth="1"/>
+    <col min="6" max="7" width="9.1047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -850,1887 +1463,1934 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="B63" t="s">
-        <v>60</v>
-      </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
         <v>84</v>
       </c>
-      <c r="B79" t="s">
-        <v>75</v>
-      </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>88</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/Import/Configurations/group_menu_template.xlsx
+++ b/Import/Configurations/group_menu_template.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Configurations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B1D0CE-92AC-4191-89AC-08D14902A5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Anonymous</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="101">
   <si>
     <t>Menu</t>
   </si>
@@ -421,19 +414,16 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Stock Moves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -456,159 +446,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,198 +456,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor theme="0" tint="-0.149998474074526"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor theme="0" tint="-0.14996795556505021"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -831,329 +484,46 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table" displayName="Table" ref="A1:G85" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G86" headerRowCount="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="Menu"/>
-    <tableColumn id="2" name="Parent Menu"/>
-    <tableColumn id="3" name="Is Create"/>
-    <tableColumn id="4" name="Is Read"/>
-    <tableColumn id="5" name="Is Update"/>
-    <tableColumn id="6" name="Is Delete"/>
-    <tableColumn id="7" name="Is Import"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Is Create"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Is Read"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Is Update"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Is Delete"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Is Import"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1411,25 +781,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.7809523809524" customWidth="1"/>
-    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
-    <col min="3" max="4" width="9.1047619047619" customWidth="1"/>
-    <col min="5" max="5" width="9.21904761904762" customWidth="1"/>
-    <col min="6" max="7" width="9.1047619047619" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2537,11 +1907,11 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>62</v>
+      <c r="A49" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -2561,7 +1931,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>63</v>
@@ -2584,7 +1954,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>63</v>
@@ -2607,7 +1977,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
         <v>63</v>
@@ -2629,8 +1999,8 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="2" t="s">
-        <v>67</v>
+      <c r="A53" t="s">
+        <v>66</v>
       </c>
       <c r="B53" t="s">
         <v>63</v>
@@ -2653,10 +2023,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -2676,7 +2046,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
         <v>69</v>
@@ -2699,7 +2069,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
         <v>69</v>
@@ -2722,7 +2092,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
         <v>69</v>
@@ -2745,7 +2115,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
         <v>69</v>
@@ -2768,7 +2138,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
         <v>69</v>
@@ -2791,7 +2161,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
@@ -2814,7 +2184,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -2837,7 +2207,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
@@ -2860,7 +2230,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
@@ -2883,7 +2253,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
@@ -2906,7 +2276,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
@@ -2929,7 +2299,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -2952,7 +2322,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
@@ -2975,7 +2345,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -2998,7 +2368,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
@@ -3021,30 +2391,30 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="B71" t="s">
         <v>84</v>
@@ -3066,8 +2436,8 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="2" t="s">
-        <v>86</v>
+      <c r="A72" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B72" t="s">
         <v>84</v>
@@ -3089,8 +2459,8 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="3" t="s">
-        <v>87</v>
+      <c r="A73" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B73" t="s">
         <v>84</v>
@@ -3112,8 +2482,8 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="2" t="s">
-        <v>88</v>
+      <c r="A74" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B74" t="s">
         <v>84</v>
@@ -3135,8 +2505,8 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="3" t="s">
-        <v>89</v>
+      <c r="A75" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
@@ -3158,8 +2528,8 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="2" t="s">
-        <v>90</v>
+      <c r="A76" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
@@ -3181,8 +2551,8 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="3" t="s">
-        <v>91</v>
+      <c r="A77" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
@@ -3204,8 +2574,8 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="2" t="s">
-        <v>92</v>
+      <c r="A78" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B78" t="s">
         <v>84</v>
@@ -3227,8 +2597,8 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="3" t="s">
-        <v>93</v>
+      <c r="A79" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
@@ -3250,8 +2620,8 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="2" t="s">
-        <v>94</v>
+      <c r="A80" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
@@ -3273,8 +2643,8 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="3" t="s">
-        <v>95</v>
+      <c r="A81" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
@@ -3296,57 +2666,57 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>97</v>
-      </c>
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="C83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
@@ -3366,7 +2736,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
         <v>98</v>
@@ -3387,13 +2757,35 @@
         <v>9</v>
       </c>
     </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Import/Configurations/group_menu_template.xlsx
+++ b/Import/Configurations/group_menu_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Configurations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B1D0CE-92AC-4191-89AC-08D14902A5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B5741-C2DF-4D13-8E76-2DFCD9406251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Mandatory</t>
         </r>
@@ -43,7 +43,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Mandatory</t>
         </r>
@@ -55,7 +55,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Select one: Yes/No</t>
         </r>
@@ -67,7 +67,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Select one: Yes/No</t>
         </r>
@@ -79,7 +79,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Select one: Yes/No</t>
         </r>
@@ -91,7 +91,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Select one: Yes/No</t>
         </r>
@@ -103,7 +103,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Select one: Yes/No</t>
         </r>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="106">
   <si>
     <t>Menu</t>
   </si>
@@ -140,15 +140,9 @@
     <t>General Consultation Services</t>
   </si>
   <si>
-    <t>Clinic Service</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Medical Checkups</t>
-  </si>
-  <si>
     <t>Procedure Rooms</t>
   </si>
   <si>
@@ -158,24 +152,12 @@
     <t>Telemedicine</t>
   </si>
   <si>
-    <t>Accidents</t>
-  </si>
-  <si>
-    <t>Maternities</t>
-  </si>
-  <si>
-    <t>Wellness</t>
-  </si>
-  <si>
     <t>Reporting And Analytics</t>
   </si>
   <si>
     <t>Queue Counters</t>
   </si>
   <si>
-    <t xml:space="preserve">Queue </t>
-  </si>
-  <si>
     <t>Queue Displays</t>
   </si>
   <si>
@@ -191,9 +173,6 @@
     <t>BPJS Classifications</t>
   </si>
   <si>
-    <t>BPJS</t>
-  </si>
-  <si>
     <t>System Parameters</t>
   </si>
   <si>
@@ -236,9 +215,6 @@
     <t>Insurance Policies</t>
   </si>
   <si>
-    <t>Disease History</t>
-  </si>
-  <si>
     <t>Prescriptions</t>
   </si>
   <si>
@@ -323,9 +299,6 @@
     <t>Practitioners</t>
   </si>
   <si>
-    <t>Medical</t>
-  </si>
-  <si>
     <t>Doctor Schedules</t>
   </si>
   <si>
@@ -368,9 +341,6 @@
     <t>Users</t>
   </si>
   <si>
-    <t>Configuration</t>
-  </si>
-  <si>
     <t>Groups</t>
   </si>
   <si>
@@ -410,13 +380,58 @@
     <t>Chronic Diagnoses</t>
   </si>
   <si>
-    <t>Education Program</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Stock Moves</t>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Medical Service</t>
+  </si>
+  <si>
+    <t>Medical Check up</t>
+  </si>
+  <si>
+    <t>Accidents Management</t>
+  </si>
+  <si>
+    <t>Maternity Check up</t>
+  </si>
+  <si>
+    <t>Diseases History</t>
+  </si>
+  <si>
+    <t>Benefit Configuration</t>
+  </si>
+  <si>
+    <t>Claim Management</t>
+  </si>
+  <si>
+    <t>Claim Request</t>
+  </si>
+  <si>
+    <t>Education &amp; Awareness Program</t>
+  </si>
+  <si>
+    <t>Education &amp; Awareness</t>
+  </si>
+  <si>
+    <t>Wellness Program</t>
+  </si>
+  <si>
+    <t>Wellness Management</t>
+  </si>
+  <si>
+    <t>BPJS Integrations</t>
+  </si>
+  <si>
+    <t>Medical Configurations</t>
+  </si>
+  <si>
+    <t>Report &amp; Analytic</t>
+  </si>
+  <si>
+    <t>System Configuration</t>
   </si>
 </sst>
 </file>
@@ -433,32 +448,26 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor theme="0" tint="-0.14996795556505021"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -488,15 +497,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +525,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G86" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G88" headerRowCount="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
@@ -787,19 +797,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -827,531 +839,531 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1359,22 +1371,22 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1382,206 +1394,206 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1589,1195 +1601,1241 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="5" t="s">
-        <v>100</v>
+      <c r="A49" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="3" t="s">
-        <v>85</v>
+      <c r="A72" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="3" t="s">
-        <v>87</v>
+      <c r="A74" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="3" t="s">
-        <v>89</v>
+      <c r="A76" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="3" t="s">
-        <v>91</v>
+      <c r="A78" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="3" t="s">
-        <v>93</v>
+      <c r="A80" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="3" t="s">
-        <v>95</v>
+      <c r="A82" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>9</v>
+      <c r="A83" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Import/Configurations/group_menu_template.xlsx
+++ b/Import/Configurations/group_menu_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B5741-C2DF-4D13-8E76-2DFCD9406251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C11BA90-A3E1-4C7F-8307-079D750E6D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="107">
   <si>
     <t>Menu</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>System Configuration</t>
+  </si>
+  <si>
+    <t>Maternity ANC</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -505,8 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +526,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G88" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:G89" headerRowCount="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Menu"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Menu"/>
@@ -797,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1092,7 +1093,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
@@ -1115,7 +1116,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>90</v>
@@ -1138,10 +1139,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1161,7 +1162,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -1184,7 +1185,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -1207,7 +1208,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -1230,10 +1231,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1253,7 +1254,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -1276,7 +1277,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -1299,7 +1300,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -1322,7 +1323,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -1345,10 +1346,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1368,7 +1369,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -1391,7 +1392,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -1414,7 +1415,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -1437,7 +1438,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1460,7 +1461,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -1483,7 +1484,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -1506,7 +1507,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -1529,10 +1530,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -1552,7 +1553,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
@@ -1575,7 +1576,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -1598,7 +1599,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -1621,7 +1622,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -1644,7 +1645,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -1667,7 +1668,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -1690,7 +1691,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
@@ -1713,7 +1714,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
@@ -1736,7 +1737,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -1759,7 +1760,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1782,10 +1783,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -1805,7 +1806,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>96</v>
@@ -1828,10 +1829,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1851,7 +1852,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>99</v>
@@ -1874,10 +1875,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -1897,30 +1898,30 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
         <v>18</v>
-      </c>
-      <c r="B48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -1942,11 +1943,11 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>20</v>
+      <c r="A50" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -1966,7 +1967,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
@@ -1989,7 +1990,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
         <v>102</v>
@@ -2012,7 +2013,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
         <v>102</v>
@@ -2034,8 +2035,8 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="2" t="s">
-        <v>25</v>
+      <c r="A54" t="s">
+        <v>24</v>
       </c>
       <c r="B54" t="s">
         <v>102</v>
@@ -2058,7 +2059,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
         <v>102</v>
@@ -2081,7 +2082,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>102</v>
@@ -2104,7 +2105,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
         <v>102</v>
@@ -2127,10 +2128,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -2150,7 +2151,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>103</v>
@@ -2173,7 +2174,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>103</v>
@@ -2196,7 +2197,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>103</v>
@@ -2219,7 +2220,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>103</v>
@@ -2242,7 +2243,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>103</v>
@@ -2265,7 +2266,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
         <v>103</v>
@@ -2288,7 +2289,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>103</v>
@@ -2311,7 +2312,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>103</v>
@@ -2334,7 +2335,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
         <v>103</v>
@@ -2357,7 +2358,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>103</v>
@@ -2380,7 +2381,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>103</v>
@@ -2403,7 +2404,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
         <v>103</v>
@@ -2426,7 +2427,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>103</v>
@@ -2448,8 +2449,8 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="6" t="s">
-        <v>71</v>
+      <c r="A72" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>103</v>
@@ -2472,7 +2473,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>103</v>
@@ -2494,8 +2495,8 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="6" t="s">
-        <v>73</v>
+      <c r="A74" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>103</v>
@@ -2518,7 +2519,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>103</v>
@@ -2540,11 +2541,11 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="6" t="s">
-        <v>74</v>
+      <c r="A76" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -2564,7 +2565,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
         <v>105</v>
@@ -2586,8 +2587,8 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="6" t="s">
-        <v>76</v>
+      <c r="A78" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B78" t="s">
         <v>105</v>
@@ -2610,7 +2611,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>105</v>
@@ -2632,8 +2633,8 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="6" t="s">
-        <v>78</v>
+      <c r="A80" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>105</v>
@@ -2656,7 +2657,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
         <v>105</v>
@@ -2678,8 +2679,8 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="6" t="s">
-        <v>80</v>
+      <c r="A82" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>105</v>
@@ -2701,54 +2702,54 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84" s="5" t="s">
+      <c r="C84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
         <v>105</v>
@@ -2771,7 +2772,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
         <v>105</v>
@@ -2794,7 +2795,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
         <v>105</v>
@@ -2817,7 +2818,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
         <v>105</v>
@@ -2835,6 +2836,29 @@
         <v>8</v>
       </c>
       <c r="G88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
         <v>8</v>
       </c>
     </row>
